--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il12a</t>
+  </si>
+  <si>
+    <t>Il12rb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il12a</t>
-  </si>
-  <si>
-    <t>Il12rb1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.370165</v>
+        <v>0.361704</v>
       </c>
       <c r="H2">
-        <v>1.110495</v>
+        <v>1.085112</v>
       </c>
       <c r="I2">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="J2">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N2">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O2">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P2">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q2">
-        <v>0.3458694670016667</v>
+        <v>0.313197926216</v>
       </c>
       <c r="R2">
-        <v>3.112825203015</v>
+        <v>2.818781335944</v>
       </c>
       <c r="S2">
-        <v>0.0330761521525022</v>
+        <v>0.03700938124143423</v>
       </c>
       <c r="T2">
-        <v>0.0330761521525022</v>
+        <v>0.03700938124143424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.370165</v>
+        <v>0.361704</v>
       </c>
       <c r="H3">
-        <v>1.110495</v>
+        <v>1.085112</v>
       </c>
       <c r="I3">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="J3">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.691215</v>
       </c>
       <c r="O3">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P3">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q3">
-        <v>0.455452866825</v>
+        <v>0.44504241012</v>
       </c>
       <c r="R3">
-        <v>4.099075801424999</v>
+        <v>4.00538169108</v>
       </c>
       <c r="S3">
-        <v>0.04355582021157256</v>
+        <v>0.05258893129892119</v>
       </c>
       <c r="T3">
-        <v>0.04355582021157255</v>
+        <v>0.05258893129892119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.370165</v>
+        <v>0.361704</v>
       </c>
       <c r="H4">
-        <v>1.110495</v>
+        <v>1.085112</v>
       </c>
       <c r="I4">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="J4">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N4">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O4">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P4">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q4">
-        <v>0.1343579263316667</v>
+        <v>0.15265958456</v>
       </c>
       <c r="R4">
-        <v>1.209221336985</v>
+        <v>1.37393626104</v>
       </c>
       <c r="S4">
-        <v>0.01284890294817343</v>
+        <v>0.01803918957382733</v>
       </c>
       <c r="T4">
-        <v>0.01284890294817343</v>
+        <v>0.01803918957382733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.370165</v>
+        <v>0.361704</v>
       </c>
       <c r="H5">
-        <v>1.110495</v>
+        <v>1.085112</v>
       </c>
       <c r="I5">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="J5">
-        <v>0.1280361154555449</v>
+        <v>0.1314845166001153</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N5">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O5">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P5">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q5">
-        <v>0.40316298876</v>
+        <v>0.201809250328</v>
       </c>
       <c r="R5">
-        <v>3.62846689884</v>
+        <v>1.816283252952</v>
       </c>
       <c r="S5">
-        <v>0.0385552401432967</v>
+        <v>0.02384701448593256</v>
       </c>
       <c r="T5">
-        <v>0.0385552401432967</v>
+        <v>0.02384701448593256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.361704</v>
+        <v>2.389220666666667</v>
       </c>
       <c r="H6">
-        <v>1.085112</v>
+        <v>7.167662</v>
       </c>
       <c r="I6">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998847</v>
       </c>
       <c r="J6">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998846</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N6">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O6">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P6">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q6">
-        <v>0.3379637990960001</v>
+        <v>2.068815821977111</v>
       </c>
       <c r="R6">
-        <v>3.041674191864</v>
+        <v>18.619342397794</v>
       </c>
       <c r="S6">
-        <v>0.0323201181585743</v>
+        <v>0.2444639222197718</v>
       </c>
       <c r="T6">
-        <v>0.03232011815857429</v>
+        <v>0.2444639222197718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.361704</v>
+        <v>2.389220666666667</v>
       </c>
       <c r="H7">
-        <v>1.085112</v>
+        <v>7.167662</v>
       </c>
       <c r="I7">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998847</v>
       </c>
       <c r="J7">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998846</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.691215</v>
       </c>
       <c r="O7">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P7">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q7">
-        <v>0.44504241012</v>
+        <v>2.93970905437</v>
       </c>
       <c r="R7">
-        <v>4.00538169108</v>
+        <v>26.45738148933</v>
       </c>
       <c r="S7">
-        <v>0.04256024852108287</v>
+        <v>0.3473739894977551</v>
       </c>
       <c r="T7">
-        <v>0.04256024852108286</v>
+        <v>0.3473739894977551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.361704</v>
+        <v>2.389220666666667</v>
       </c>
       <c r="H8">
-        <v>1.085112</v>
+        <v>7.167662</v>
       </c>
       <c r="I8">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998847</v>
       </c>
       <c r="J8">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998846</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N8">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O8">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P8">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q8">
-        <v>0.131286856904</v>
+        <v>1.008386510504444</v>
       </c>
       <c r="R8">
-        <v>1.181581712136</v>
+        <v>9.07547859454</v>
       </c>
       <c r="S8">
-        <v>0.01255521076267643</v>
+        <v>0.1191571133847182</v>
       </c>
       <c r="T8">
-        <v>0.01255521076267643</v>
+        <v>0.1191571133847182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.361704</v>
+        <v>2.389220666666667</v>
       </c>
       <c r="H9">
-        <v>1.085112</v>
+        <v>7.167662</v>
       </c>
       <c r="I9">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998847</v>
       </c>
       <c r="J9">
-        <v>0.1251095460260489</v>
+        <v>0.8685154833998846</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N9">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O9">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P9">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q9">
-        <v>0.393947741376</v>
+        <v>1.333042575166889</v>
       </c>
       <c r="R9">
-        <v>3.545529672384</v>
+        <v>11.997383176502</v>
       </c>
       <c r="S9">
-        <v>0.03767396858371534</v>
+        <v>0.1575204582976396</v>
       </c>
       <c r="T9">
-        <v>0.03767396858371534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.159229333333333</v>
-      </c>
-      <c r="H10">
-        <v>6.477688</v>
-      </c>
-      <c r="I10">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="J10">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9343656666666668</v>
-      </c>
-      <c r="N10">
-        <v>2.803097</v>
-      </c>
-      <c r="O10">
-        <v>0.2583345490826492</v>
-      </c>
-      <c r="P10">
-        <v>0.2583345490826492</v>
-      </c>
-      <c r="Q10">
-        <v>2.017509755526222</v>
-      </c>
-      <c r="R10">
-        <v>18.157587799736</v>
-      </c>
-      <c r="S10">
-        <v>0.1929382787715727</v>
-      </c>
-      <c r="T10">
-        <v>0.1929382787715727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.159229333333333</v>
-      </c>
-      <c r="H11">
-        <v>6.477688</v>
-      </c>
-      <c r="I11">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="J11">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.230405</v>
-      </c>
-      <c r="N11">
-        <v>3.691215</v>
-      </c>
-      <c r="O11">
-        <v>0.3401838618471323</v>
-      </c>
-      <c r="P11">
-        <v>0.3401838618471322</v>
-      </c>
-      <c r="Q11">
-        <v>2.65672656788</v>
-      </c>
-      <c r="R11">
-        <v>23.91053911092</v>
-      </c>
-      <c r="S11">
-        <v>0.2540677931144769</v>
-      </c>
-      <c r="T11">
-        <v>0.2540677931144768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.159229333333333</v>
-      </c>
-      <c r="H12">
-        <v>6.477688</v>
-      </c>
-      <c r="I12">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="J12">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.3629676666666666</v>
-      </c>
-      <c r="N12">
-        <v>1.088903</v>
-      </c>
-      <c r="O12">
-        <v>0.1003537392747179</v>
-      </c>
-      <c r="P12">
-        <v>0.1003537392747179</v>
-      </c>
-      <c r="Q12">
-        <v>0.7837304329182221</v>
-      </c>
-      <c r="R12">
-        <v>7.053573896263999</v>
-      </c>
-      <c r="S12">
-        <v>0.07494962556386806</v>
-      </c>
-      <c r="T12">
-        <v>0.07494962556386804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.159229333333333</v>
-      </c>
-      <c r="H13">
-        <v>6.477688</v>
-      </c>
-      <c r="I13">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="J13">
-        <v>0.7468543385184062</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.089144</v>
-      </c>
-      <c r="N13">
-        <v>3.267432</v>
-      </c>
-      <c r="O13">
-        <v>0.3011278497955007</v>
-      </c>
-      <c r="P13">
-        <v>0.3011278497955007</v>
-      </c>
-      <c r="Q13">
-        <v>2.351711673024</v>
-      </c>
-      <c r="R13">
-        <v>21.165405057216</v>
-      </c>
-      <c r="S13">
-        <v>0.2248986410684886</v>
-      </c>
-      <c r="T13">
-        <v>0.2248986410684886</v>
+        <v>0.1575204582976396</v>
       </c>
     </row>
   </sheetData>
